--- a/data/input/absenteeism_data_39.xlsx
+++ b/data/input/absenteeism_data_39.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>62998</v>
+        <v>47332</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maitê Moreira</t>
+          <t>Raquel das Neves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45080</v>
+        <v>45091</v>
       </c>
       <c r="G2" t="n">
-        <v>10430.97</v>
+        <v>7226.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50652</v>
+        <v>15439</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vitor Jesus</t>
+          <t>Diogo Aragão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,84 +519,84 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45086</v>
+        <v>45083</v>
       </c>
       <c r="G3" t="n">
-        <v>6723.15</v>
+        <v>8464.860000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>56163</v>
+        <v>89755</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thiago da Luz</t>
+          <t>Alana Moura</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45087</v>
+        <v>45104</v>
       </c>
       <c r="G4" t="n">
-        <v>8134.7</v>
+        <v>4056.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>32428</v>
+        <v>97626</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Leandro da Cunha</t>
+          <t>Rebeca Cardoso</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45079</v>
+        <v>45090</v>
       </c>
       <c r="G5" t="n">
-        <v>10463.08</v>
+        <v>5174.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>73616</v>
+        <v>19453</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mirella Farias</t>
+          <t>Sophie Correia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,84 +606,84 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45081</v>
+        <v>45080</v>
       </c>
       <c r="G6" t="n">
-        <v>4351.4</v>
+        <v>9112.68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>39966</v>
+        <v>15576</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Daniela Cardoso</t>
+          <t>Lucas Gabriel Cardoso</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45103</v>
+        <v>45100</v>
       </c>
       <c r="G7" t="n">
-        <v>4013.48</v>
+        <v>2500.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>36885</v>
+        <v>36610</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Clarice da Cruz</t>
+          <t>Joaquim da Mata</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45102</v>
+        <v>45088</v>
       </c>
       <c r="G8" t="n">
-        <v>3084.48</v>
+        <v>3552.61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>79382</v>
+        <v>40490</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Letícia Nogueira</t>
+          <t>Ana Clara Campos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,31 +693,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45084</v>
+        <v>45080</v>
       </c>
       <c r="G9" t="n">
-        <v>9504.82</v>
+        <v>6339.72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>51586</v>
+        <v>76302</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Thales Vieira</t>
+          <t>Enzo Gabriel Costa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45084</v>
+        <v>45090</v>
       </c>
       <c r="G10" t="n">
-        <v>8648.01</v>
+        <v>6395.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94321</v>
+        <v>51262</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dr. Yago Pereira</t>
+          <t>Kevin Monteiro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45093</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>8626.530000000001</v>
+        <v>10023.61</v>
       </c>
     </row>
   </sheetData>
